--- a/bill of materials.xlsx
+++ b/bill of materials.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Test_case\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7550"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">Project Name </t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>shoeb</t>
+  </si>
+  <si>
+    <t>ERP</t>
+  </si>
+  <si>
+    <t>Merchandising</t>
   </si>
 </sst>
 </file>
@@ -301,6 +307,24 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -317,24 +341,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -563,7 +569,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -578,136 +584,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="20" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="20"/>
+      <c r="E1" s="14"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="12"/>
+      <c r="H1" s="18"/>
       <c r="I1" s="1"/>
       <c r="J1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="21" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="21"/>
+      <c r="E2" s="15"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="13"/>
+      <c r="H2" s="19"/>
       <c r="I2" s="1"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="16"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="14"/>
+      <c r="H3" s="20"/>
       <c r="I3" s="1"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="17"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="15"/>
+      <c r="H4" s="21"/>
       <c r="I4" s="1"/>
       <c r="J4" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="A10" s="5"/>
@@ -821,6 +831,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="I7:I9"/>
     <mergeCell ref="J7:J9"/>
     <mergeCell ref="A1:B1"/>
@@ -837,12 +853,6 @@
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="G7:G9"/>
     <mergeCell ref="H7:H9"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/bill of materials.xlsx
+++ b/bill of materials.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t xml:space="preserve">Project Name </t>
   </si>
@@ -97,6 +97,42 @@
   </si>
   <si>
     <t>Merchandising</t>
+  </si>
+  <si>
+    <t>TC-010</t>
+  </si>
+  <si>
+    <t>TC-001</t>
+  </si>
+  <si>
+    <t>TC-002</t>
+  </si>
+  <si>
+    <t>TC-003</t>
+  </si>
+  <si>
+    <t>TC-004</t>
+  </si>
+  <si>
+    <t>TC-006</t>
+  </si>
+  <si>
+    <t>TC-007</t>
+  </si>
+  <si>
+    <t>TC-005</t>
+  </si>
+  <si>
+    <t>TC-008</t>
+  </si>
+  <si>
+    <t>TC-009</t>
+  </si>
+  <si>
+    <t>TC-011</t>
+  </si>
+  <si>
+    <t>TC-012</t>
   </si>
 </sst>
 </file>
@@ -307,6 +343,24 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -323,24 +377,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -566,10 +602,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -584,143 +620,145 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="18"/>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="14"/>
+      <c r="E1" s="20"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="18"/>
+      <c r="H1" s="12"/>
       <c r="I1" s="1"/>
       <c r="J1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="15"/>
+      <c r="E2" s="21"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="13"/>
       <c r="I2" s="1"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="13"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="16"/>
+      <c r="E3" s="10"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="20"/>
+      <c r="H3" s="14"/>
       <c r="I3" s="1"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="13"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="17"/>
+      <c r="E4" s="11"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="21"/>
+      <c r="H4" s="15"/>
       <c r="I4" s="1"/>
       <c r="J4" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A10" s="5"/>
+      <c r="A10" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
@@ -731,7 +769,9 @@
       <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A11" s="5"/>
+      <c r="A11" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="7"/>
@@ -742,7 +782,9 @@
       <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A12" s="5"/>
+      <c r="A12" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="7"/>
@@ -753,7 +795,9 @@
       <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A13" s="5"/>
+      <c r="A13" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="8"/>
@@ -764,7 +808,9 @@
       <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A14" s="5"/>
+      <c r="A14" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="8"/>
@@ -775,7 +821,9 @@
       <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A15" s="5"/>
+      <c r="A15" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="8"/>
@@ -786,7 +834,9 @@
       <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A16" s="5"/>
+      <c r="A16" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="8"/>
@@ -797,7 +847,9 @@
       <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A17" s="5"/>
+      <c r="A17" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="8"/>
@@ -808,7 +860,9 @@
       <c r="I17" s="9"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A18" s="5"/>
+      <c r="A18" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="8"/>
@@ -819,7 +873,9 @@
       <c r="I18" s="9"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A19" s="5"/>
+      <c r="A19" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="8"/>
@@ -829,14 +885,18 @@
       <c r="H19" s="5"/>
       <c r="I19" s="9"/>
     </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
     <mergeCell ref="I7:I9"/>
     <mergeCell ref="J7:J9"/>
     <mergeCell ref="A1:B1"/>
@@ -853,6 +913,12 @@
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="G7:G9"/>
     <mergeCell ref="H7:H9"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/bill of materials.xlsx
+++ b/bill of materials.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t xml:space="preserve">Project Name </t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>TC-012</t>
+  </si>
+  <si>
+    <t>Valid Url and stable internet</t>
+  </si>
+  <si>
+    <t>1.Go to http://test.beacontech.xyz/procurement/procurementservicedeliverychallan 2.Input description</t>
   </si>
 </sst>
 </file>
@@ -343,6 +349,24 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -359,24 +383,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -605,7 +611,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -620,148 +626,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
+      <c r="B1" s="12"/>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="20"/>
+      <c r="E1" s="14"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="12"/>
+      <c r="H1" s="18"/>
       <c r="I1" s="1"/>
       <c r="J1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="13"/>
       <c r="C2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="21"/>
+      <c r="E2" s="15"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="13"/>
+      <c r="H2" s="19"/>
       <c r="I2" s="1"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="16"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="14"/>
+      <c r="H3" s="20"/>
       <c r="I3" s="1"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="17"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="15"/>
+      <c r="H4" s="21"/>
       <c r="I4" s="1"/>
       <c r="J4" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
+      <c r="C10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -773,8 +783,12 @@
         <v>36</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="7"/>
+      <c r="C11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="E11" s="5"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -786,7 +800,9 @@
         <v>26</v>
       </c>
       <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="D12" s="7"/>
       <c r="E12" s="5"/>
       <c r="F12" s="7"/>
@@ -799,7 +815,9 @@
         <v>35</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="D13" s="8"/>
       <c r="E13" s="5"/>
       <c r="F13" s="7"/>
@@ -812,7 +830,9 @@
         <v>34</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="D14" s="8"/>
       <c r="E14" s="5"/>
       <c r="F14" s="7"/>
@@ -825,7 +845,9 @@
         <v>32</v>
       </c>
       <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="D15" s="8"/>
       <c r="E15" s="5"/>
       <c r="F15" s="7"/>
@@ -838,7 +860,9 @@
         <v>31</v>
       </c>
       <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="D16" s="8"/>
       <c r="E16" s="5"/>
       <c r="F16" s="7"/>
@@ -851,7 +875,9 @@
         <v>33</v>
       </c>
       <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="D17" s="8"/>
       <c r="E17" s="5"/>
       <c r="F17" s="7"/>
@@ -864,7 +890,9 @@
         <v>30</v>
       </c>
       <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="D18" s="8"/>
       <c r="E18" s="5"/>
       <c r="F18" s="7"/>
@@ -877,7 +905,9 @@
         <v>29</v>
       </c>
       <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="D19" s="8"/>
       <c r="E19" s="5"/>
       <c r="F19" s="7"/>
@@ -897,6 +927,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="I7:I9"/>
     <mergeCell ref="J7:J9"/>
     <mergeCell ref="A1:B1"/>
@@ -913,12 +949,6 @@
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="G7:G9"/>
     <mergeCell ref="H7:H9"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/bill of materials.xlsx
+++ b/bill of materials.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="66">
   <si>
     <t xml:space="preserve">Project Name </t>
   </si>
@@ -138,14 +138,92 @@
     <t>Valid Url and stable internet</t>
   </si>
   <si>
-    <t>1.Go to http://test.beacontech.xyz/procurement/procurementservicedeliverychallan 2.Input description</t>
+    <t>1.Go to http://test.beacontech.xyz/Merchandising/StyleView/796 2.Select Fabrics</t>
+  </si>
+  <si>
+    <t>1.Go to http://test.beacontech.xyz/Merchandising/StyleView/796 2.Select color</t>
+  </si>
+  <si>
+    <t>1.Go to http://test.beacontech.xyz/Merchandising/StyleView/796 2.select GSM</t>
+  </si>
+  <si>
+    <t>1.Go to http://test.beacontech.xyz/Merchandising/StyleView/796 2.Select Consumption on pcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Go to http://test.beacontech.xyz/Merchandising/StyleView/796 2.Input tolerance </t>
+  </si>
+  <si>
+    <t>1.Go tohttp://test.beacontech.xyz/Merchandising/StyleView/7962.Input Unit cost</t>
+  </si>
+  <si>
+    <t>1.Go tohttp://test.beacontech.xyz/Merchandising/StyleView/7962. 2.Click ADD Button</t>
+  </si>
+  <si>
+    <t>Select Fabrics</t>
+  </si>
+  <si>
+    <t>Select Fabrics color</t>
+  </si>
+  <si>
+    <t>Input Fabrics Consumption on pcs</t>
+  </si>
+  <si>
+    <t>Input Fabrics GSM</t>
+  </si>
+  <si>
+    <t>Input Tolerance</t>
+  </si>
+  <si>
+    <t>Input Unit cost</t>
+  </si>
+  <si>
+    <t>Click ADD button</t>
+  </si>
+  <si>
+    <t>Singel Jersy</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>user should be able select the Fabric</t>
+  </si>
+  <si>
+    <t>user should be able select the color</t>
+  </si>
+  <si>
+    <t>user should be able to input gsm</t>
+  </si>
+  <si>
+    <t>user should be able to input consumption</t>
+  </si>
+  <si>
+    <t>user should be able to input tolerance</t>
+  </si>
+  <si>
+    <t>user should be able to input unit cost</t>
+  </si>
+  <si>
+    <t>user should be able to click add button</t>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t>sucessfully selected</t>
+  </si>
+  <si>
+    <t>sucessfully inputed</t>
+  </si>
+  <si>
+    <t>sucessfully clicked</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -202,6 +280,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -277,7 +361,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -326,11 +410,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -343,12 +438,27 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -367,23 +477,22 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -611,7 +720,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -626,149 +735,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="17"/>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="14"/>
+      <c r="E1" s="19"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="18"/>
+      <c r="H1" s="11"/>
       <c r="I1" s="1"/>
       <c r="J1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="15"/>
+      <c r="E2" s="20"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="12"/>
       <c r="I2" s="1"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="13"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="16"/>
+      <c r="E3" s="9"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="20"/>
+      <c r="H3" s="13"/>
       <c r="I3" s="1"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="13"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="17"/>
+      <c r="E4" s="10"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="21"/>
+      <c r="H4" s="14"/>
       <c r="I4" s="1"/>
       <c r="J4" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A10" s="5" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+    </row>
+    <row r="10" spans="1:10" ht="32.5" customHeight="1">
+      <c r="A10" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="D10" s="7" t="s">
         <v>38</v>
       </c>
@@ -776,16 +882,13 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="9"/>
+      <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="D11" s="7" t="s">
         <v>38</v>
       </c>
@@ -793,146 +896,222 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="9"/>
+      <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="5"/>
-      <c r="C12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="E12" s="5"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="9"/>
+      <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="E13" s="5"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="9"/>
+      <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="E14" s="5"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="9"/>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="24" t="s">
+        <v>52</v>
+      </c>
       <c r="C15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>45</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="9"/>
+      <c r="F15" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="24" t="s">
+        <v>51</v>
+      </c>
       <c r="C16" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.63</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="5"/>
+      <c r="B17" s="24" t="s">
+        <v>50</v>
+      </c>
       <c r="C17" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="A18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="25" t="s">
+        <v>48</v>
+      </c>
       <c r="C18" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="5"/>
+      <c r="B19" s="25" t="s">
+        <v>49</v>
+      </c>
       <c r="C19" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="9"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1">
+        <v>41</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="6">
+        <v>260</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:9" ht="14" customHeight="1">
       <c r="A20" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B20" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="35.5" customHeight="1">
       <c r="A21" t="s">
         <v>27</v>
       </c>
+      <c r="B21" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
     <mergeCell ref="I7:I9"/>
     <mergeCell ref="J7:J9"/>
     <mergeCell ref="A1:B1"/>
@@ -949,8 +1128,14 @@
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="G7:G9"/>
     <mergeCell ref="H7:H9"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/bill of materials.xlsx
+++ b/bill of materials.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
   <si>
     <t xml:space="preserve">Project Name </t>
   </si>
@@ -217,6 +217,21 @@
   </si>
   <si>
     <t>sucessfully clicked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select sewing trims </t>
+  </si>
+  <si>
+    <t>Select trims color</t>
+  </si>
+  <si>
+    <t>Input trims Consumption on pcs</t>
+  </si>
+  <si>
+    <t>1.Go to http://test.beacontech.xyz/Merchandising/StyleView/796 2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Care label </t>
   </si>
 </sst>
 </file>
@@ -441,42 +456,6 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -493,6 +472,42 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -720,7 +735,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -735,146 +750,151 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="18"/>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="19"/>
+      <c r="E1" s="20"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="11"/>
+      <c r="H1" s="24"/>
       <c r="I1" s="1"/>
       <c r="J1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="20"/>
+      <c r="E2" s="21"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="12"/>
+      <c r="H2" s="25"/>
       <c r="I2" s="1"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="13"/>
+      <c r="H3" s="26"/>
       <c r="I3" s="1"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="23"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="14"/>
+      <c r="H4" s="27"/>
       <c r="I4" s="1"/>
       <c r="J4" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
     </row>
     <row r="10" spans="1:10" ht="32.5" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="D10" s="7" t="s">
         <v>38</v>
       </c>
@@ -888,7 +908,12 @@
       <c r="A11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="D11" s="7" t="s">
         <v>38</v>
       </c>
@@ -902,7 +927,12 @@
       <c r="A12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="D12" s="7" t="s">
         <v>38</v>
       </c>
@@ -916,7 +946,12 @@
       <c r="A13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="D13" s="7" t="s">
         <v>38</v>
       </c>
@@ -930,12 +965,19 @@
       <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="D14" s="7" t="s">
         <v>38</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="5"/>
       <c r="I14" s="8"/>
@@ -944,7 +986,7 @@
       <c r="A15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="12" t="s">
         <v>52</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -954,13 +996,13 @@
         <v>38</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="21" t="s">
+      <c r="H15" s="9" t="s">
         <v>65</v>
       </c>
       <c r="I15" s="8"/>
@@ -969,7 +1011,7 @@
       <c r="A16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="12" t="s">
         <v>51</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -981,10 +1023,10 @@
       <c r="F16" s="6">
         <v>0.63</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="9" t="s">
         <v>64</v>
       </c>
       <c r="I16" s="8"/>
@@ -993,7 +1035,7 @@
       <c r="A17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="12" t="s">
         <v>50</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -1005,10 +1047,10 @@
       <c r="F17" s="6">
         <v>0.01</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="H17" s="21" t="s">
+      <c r="H17" s="9" t="s">
         <v>64</v>
       </c>
       <c r="I17" s="8"/>
@@ -1017,7 +1059,7 @@
       <c r="A18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="13" t="s">
         <v>48</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -1029,10 +1071,10 @@
       <c r="F18" s="6">
         <v>0.98</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H18" s="21" t="s">
+      <c r="H18" s="9" t="s">
         <v>64</v>
       </c>
       <c r="I18" s="8"/>
@@ -1041,7 +1083,7 @@
       <c r="A19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="13" t="s">
         <v>49</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -1053,10 +1095,10 @@
       <c r="F19" s="6">
         <v>260</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="21" t="s">
+      <c r="H19" s="9" t="s">
         <v>64</v>
       </c>
       <c r="I19" s="8"/>
@@ -1065,7 +1107,7 @@
       <c r="A20" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="13" t="s">
         <v>47</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -1074,13 +1116,13 @@
       <c r="D20" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="27" t="s">
+      <c r="F20" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="23" t="s">
+      <c r="G20" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="H20" s="21" t="s">
+      <c r="H20" s="9" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1088,7 +1130,7 @@
       <c r="A21" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="13" t="s">
         <v>46</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -1097,21 +1139,27 @@
       <c r="D21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="F21" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="G21" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="21" t="s">
+      <c r="H21" s="9" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="I7:I9"/>
     <mergeCell ref="J7:J9"/>
     <mergeCell ref="A1:B1"/>
@@ -1128,12 +1176,6 @@
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="G7:G9"/>
     <mergeCell ref="H7:H9"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/bill of materials.xlsx
+++ b/bill of materials.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
   <si>
     <t xml:space="preserve">Project Name </t>
   </si>
@@ -232,6 +232,12 @@
   </si>
   <si>
     <t xml:space="preserve">Care label </t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>user should be able select the Trims</t>
   </si>
 </sst>
 </file>
@@ -473,6 +479,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -489,24 +513,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -735,7 +741,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -750,140 +756,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
+      <c r="B1" s="24"/>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="20"/>
+      <c r="E1" s="26"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="24"/>
+      <c r="H1" s="18"/>
       <c r="I1" s="1"/>
       <c r="J1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="21"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="25"/>
+      <c r="H2" s="19"/>
       <c r="I2" s="1"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="22"/>
+      <c r="E3" s="16"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="26"/>
+      <c r="H3" s="20"/>
       <c r="I3" s="1"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="23"/>
+      <c r="E4" s="17"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="27"/>
+      <c r="H4" s="21"/>
       <c r="I4" s="1"/>
       <c r="J4" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
     </row>
     <row r="10" spans="1:10" ht="32.5" customHeight="1">
       <c r="A10" s="6" t="s">
@@ -918,8 +924,12 @@
         <v>38</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="F11" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="H11" s="5"/>
       <c r="I11" s="8"/>
     </row>
@@ -937,8 +947,12 @@
         <v>38</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="F12" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="H12" s="5"/>
       <c r="I12" s="8"/>
     </row>
@@ -956,8 +970,12 @@
         <v>38</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="I13" s="8"/>
     </row>
@@ -978,7 +996,9 @@
       <c r="F14" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G14" s="7"/>
+      <c r="G14" s="11" t="s">
+        <v>72</v>
+      </c>
       <c r="H14" s="5"/>
       <c r="I14" s="8"/>
     </row>
@@ -1154,12 +1174,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
     <mergeCell ref="I7:I9"/>
     <mergeCell ref="J7:J9"/>
     <mergeCell ref="A1:B1"/>
@@ -1176,6 +1190,12 @@
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="G7:G9"/>
     <mergeCell ref="H7:H9"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/bill of materials.xlsx
+++ b/bill of materials.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
   <si>
     <t xml:space="preserve">Project Name </t>
   </si>
@@ -479,6 +479,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -495,24 +513,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -741,7 +741,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -756,140 +756,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="18"/>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="26"/>
+      <c r="E1" s="20"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="18"/>
+      <c r="H1" s="24"/>
       <c r="I1" s="1"/>
       <c r="J1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="27"/>
+      <c r="E2" s="21"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="25"/>
       <c r="I2" s="1"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="16"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="20"/>
+      <c r="H3" s="26"/>
       <c r="I3" s="1"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="25"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="17"/>
+      <c r="E4" s="23"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="21"/>
+      <c r="H4" s="27"/>
       <c r="I4" s="1"/>
       <c r="J4" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
     </row>
     <row r="10" spans="1:10" ht="32.5" customHeight="1">
       <c r="A10" s="6" t="s">
@@ -930,7 +930,9 @@
       <c r="G11" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="5"/>
+      <c r="H11" s="9" t="s">
+        <v>64</v>
+      </c>
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
@@ -953,7 +955,9 @@
       <c r="G12" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="5"/>
+      <c r="H12" s="9" t="s">
+        <v>64</v>
+      </c>
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
@@ -976,7 +980,9 @@
       <c r="G13" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="5"/>
+      <c r="H13" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1">
@@ -999,7 +1005,9 @@
       <c r="G14" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H14" s="5"/>
+      <c r="H14" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1">
@@ -1174,6 +1182,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="I7:I9"/>
     <mergeCell ref="J7:J9"/>
     <mergeCell ref="A1:B1"/>
@@ -1190,12 +1204,6 @@
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="G7:G9"/>
     <mergeCell ref="H7:H9"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/bill of materials.xlsx
+++ b/bill of materials.xlsx
@@ -479,6 +479,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -495,24 +513,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -738,10 +738,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -756,191 +756,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
+      <c r="B1" s="24"/>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="20"/>
+      <c r="E1" s="26"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="24"/>
+      <c r="H1" s="18"/>
       <c r="I1" s="1"/>
       <c r="J1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="21"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="25"/>
+      <c r="H2" s="19"/>
       <c r="I2" s="1"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="22"/>
+      <c r="E3" s="16"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="26"/>
+      <c r="H3" s="20"/>
       <c r="I3" s="1"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="23"/>
+      <c r="E4" s="17"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="27"/>
+      <c r="H4" s="21"/>
       <c r="I4" s="1"/>
       <c r="J4" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
     </row>
     <row r="10" spans="1:10" ht="32.5" customHeight="1">
-      <c r="A10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>38</v>
-      </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="5"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6">
-        <v>0.98</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>64</v>
-      </c>
+    <row r="11" spans="1:10" ht="32.5" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="5"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>68</v>
+    <row r="12" spans="1:10" ht="32.5" customHeight="1">
+      <c r="A12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>40</v>
@@ -948,24 +922,18 @@
       <c r="D12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6">
-        <v>0.98</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>64</v>
-      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="5"/>
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>67</v>
+        <v>36</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>40</v>
@@ -974,133 +942,135 @@
         <v>38</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
+      <c r="F13" s="6">
+        <v>0.98</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>38</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="7" t="s">
-        <v>70</v>
+      <c r="F14" s="6">
+        <v>0.98</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>52</v>
+        <v>35</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>38</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="14" t="s">
-        <v>62</v>
+      <c r="F15" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>51</v>
+        <v>34</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="6">
-        <v>0.63</v>
+      <c r="E16" s="5"/>
+      <c r="F16" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="6">
-        <v>0.01</v>
+      <c r="E17" s="5"/>
+      <c r="F17" s="14" t="s">
+        <v>62</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>48</v>
+        <v>31</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>38</v>
       </c>
       <c r="F18" s="6">
-        <v>0.98</v>
+        <v>0.63</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>64</v>
@@ -1109,85 +1079,127 @@
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>49</v>
+        <v>33</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>38</v>
       </c>
       <c r="F19" s="6">
-        <v>260</v>
+        <v>0.01</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H19" s="9" t="s">
         <v>64</v>
       </c>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" ht="14" customHeight="1">
-      <c r="A20" t="s">
-        <v>28</v>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A20" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="15" t="s">
-        <v>54</v>
+      <c r="F20" s="6">
+        <v>0.98</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="35.5" customHeight="1">
-      <c r="A21" t="s">
-        <v>27</v>
+        <v>64</v>
+      </c>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A21" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="F21" s="6">
+        <v>260</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="1:9" ht="14" customHeight="1">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="35.5" customHeight="1">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F23" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G23" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H23" s="9" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
     <mergeCell ref="I7:I9"/>
     <mergeCell ref="J7:J9"/>
     <mergeCell ref="A1:B1"/>
@@ -1204,6 +1216,12 @@
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="G7:G9"/>
     <mergeCell ref="H7:H9"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/bill of materials.xlsx
+++ b/bill of materials.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="132">
   <si>
     <t xml:space="preserve">Project Name </t>
   </si>
@@ -238,6 +238,183 @@
   </si>
   <si>
     <t>user should be able select the Trims</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select Packing trims </t>
+  </si>
+  <si>
+    <t>Select Packing trims color</t>
+  </si>
+  <si>
+    <t>1.Go to http://test.beacontech.xyz/Merchandising/StyleView/796 2.Select Trims</t>
+  </si>
+  <si>
+    <t>1.Go to http://test.beacontech.xyz/Merchandising/StyleView/796 2.Select Trims color</t>
+  </si>
+  <si>
+    <t>Select Wash Fabric</t>
+  </si>
+  <si>
+    <t>Select Wash Type</t>
+  </si>
+  <si>
+    <t>Input  Consumption (DZ)</t>
+  </si>
+  <si>
+    <t>Input Consumption on pcs</t>
+  </si>
+  <si>
+    <t>Select Fabric</t>
+  </si>
+  <si>
+    <t>Select Print Type</t>
+  </si>
+  <si>
+    <t>Select Embroidery Type</t>
+  </si>
+  <si>
+    <t>Select Item</t>
+  </si>
+  <si>
+    <t>Input Test And Others Cost</t>
+  </si>
+  <si>
+    <t>Approved all Bom</t>
+  </si>
+  <si>
+    <t>1.Go to http://test.beacontech.xyz/Merchandising/StyleView/796 2.Input Consumption (DZ)</t>
+  </si>
+  <si>
+    <t>1.Go tohttp://test.beacontech.xyz/Merchandising/StyleView/7962. 2.Click Approved all Bom</t>
+  </si>
+  <si>
+    <t>1.Go to http://test.beacontech.xyz/Merchandising/StyleView/796 2.Select Embroidery Type</t>
+  </si>
+  <si>
+    <t>1.Go to http://test.beacontech.xyz/Merchandising/StyleView/796 2.Select Fabric Type</t>
+  </si>
+  <si>
+    <t>1.Go to http://test.beacontech.xyz/Merchandising/StyleView/796 2.Select Print Type</t>
+  </si>
+  <si>
+    <t>1.Go tohttp://test.beacontech.xyz/Merchandising/StyleView/7962.Select Item</t>
+  </si>
+  <si>
+    <t>1.Go tohttp://test.beacontech.xyz/Merchandising/StyleView/7962.Input Test and other cost</t>
+  </si>
+  <si>
+    <t>Sticker</t>
+  </si>
+  <si>
+    <t>Normal Wash</t>
+  </si>
+  <si>
+    <t>Pigment Print</t>
+  </si>
+  <si>
+    <t>Appiluque with print</t>
+  </si>
+  <si>
+    <t>Garments Test</t>
+  </si>
+  <si>
+    <t>TC-013</t>
+  </si>
+  <si>
+    <t>TC-014</t>
+  </si>
+  <si>
+    <t>TC-015</t>
+  </si>
+  <si>
+    <t>TC-016</t>
+  </si>
+  <si>
+    <t>TC-017</t>
+  </si>
+  <si>
+    <t>TC-018</t>
+  </si>
+  <si>
+    <t>TC-019</t>
+  </si>
+  <si>
+    <t>TC-020</t>
+  </si>
+  <si>
+    <t>TC-021</t>
+  </si>
+  <si>
+    <t>TC-022</t>
+  </si>
+  <si>
+    <t>TC-023</t>
+  </si>
+  <si>
+    <t>TC-024</t>
+  </si>
+  <si>
+    <t>TC-025</t>
+  </si>
+  <si>
+    <t>TC-026</t>
+  </si>
+  <si>
+    <t>TC-027</t>
+  </si>
+  <si>
+    <t>TC-028</t>
+  </si>
+  <si>
+    <t>TC-029</t>
+  </si>
+  <si>
+    <t>TC-030</t>
+  </si>
+  <si>
+    <t>TC-031</t>
+  </si>
+  <si>
+    <t>TC-032</t>
+  </si>
+  <si>
+    <t>TC-033</t>
+  </si>
+  <si>
+    <t>TC-034</t>
+  </si>
+  <si>
+    <t>TC-035</t>
+  </si>
+  <si>
+    <t>TC-036</t>
+  </si>
+  <si>
+    <t>TC-037</t>
+  </si>
+  <si>
+    <t>TC-038</t>
+  </si>
+  <si>
+    <t>TC-039</t>
+  </si>
+  <si>
+    <t>TC-040</t>
+  </si>
+  <si>
+    <t>TC-041</t>
+  </si>
+  <si>
+    <t>TC-042</t>
+  </si>
+  <si>
+    <t>TC-043</t>
+  </si>
+  <si>
+    <t>TC-044</t>
+  </si>
+  <si>
+    <t>TC-045</t>
   </si>
 </sst>
 </file>
@@ -446,7 +623,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -479,6 +656,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -497,23 +692,8 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -738,10 +918,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -756,142 +936,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="18"/>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="26"/>
+      <c r="E1" s="20"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="18"/>
+      <c r="H1" s="24"/>
       <c r="I1" s="1"/>
       <c r="J1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="27"/>
+      <c r="E2" s="21"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="25"/>
       <c r="I2" s="1"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="16"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="20"/>
+      <c r="H3" s="26"/>
       <c r="I3" s="1"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="25"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="17"/>
+      <c r="E4" s="23"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="21"/>
+      <c r="H4" s="27"/>
       <c r="I4" s="1"/>
       <c r="J4" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
     </row>
     <row r="10" spans="1:10" ht="32.5" customHeight="1">
+      <c r="A10" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -899,10 +1091,18 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:10" ht="32.5" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="7"/>
+      <c r="A11" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -910,14 +1110,14 @@
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:10" ht="32.5" customHeight="1">
-      <c r="A12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>52</v>
+      <c r="A12" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>38</v>
@@ -928,278 +1128,915 @@
       <c r="H12" s="5"/>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:10" ht="32.5" customHeight="1">
+      <c r="A13" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" ht="32.5" customHeight="1">
+      <c r="A14" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" ht="32.5" customHeight="1">
+      <c r="A15" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7">
+        <v>2</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" ht="32.5" customHeight="1">
+      <c r="A16" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="1:9" ht="32.5" customHeight="1">
+      <c r="A17" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7">
+        <v>4</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="1:9" ht="32.5" customHeight="1">
+      <c r="A18" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7">
         <v>36</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="G18" s="7"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="1:9" ht="32.5" customHeight="1">
+      <c r="A19" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:9" ht="32.5" customHeight="1">
+      <c r="A20" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="1:9" ht="32.5" customHeight="1">
+      <c r="A21" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="1:9" ht="32.5" customHeight="1">
+      <c r="A22" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7">
+        <v>3</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" ht="32.5" customHeight="1">
+      <c r="A23" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="8"/>
+    </row>
+    <row r="24" spans="1:9" ht="32.5" customHeight="1">
+      <c r="A24" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7">
+        <v>2</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="1:9" ht="32.5" customHeight="1">
+      <c r="A25" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7">
+        <v>24</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="8"/>
+    </row>
+    <row r="26" spans="1:9" ht="32.5" customHeight="1">
+      <c r="A26" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="8"/>
+    </row>
+    <row r="27" spans="1:9" ht="32.5" customHeight="1">
+      <c r="A27" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="8"/>
+    </row>
+    <row r="28" spans="1:9" ht="32.5" customHeight="1">
+      <c r="A28" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="8"/>
+    </row>
+    <row r="29" spans="1:9" ht="32.5" customHeight="1">
+      <c r="A29" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7">
+        <v>2</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="8"/>
+    </row>
+    <row r="30" spans="1:9" ht="32.5" customHeight="1">
+      <c r="A30" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7">
+        <v>0.21</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="8"/>
+    </row>
+    <row r="31" spans="1:9" ht="32.5" customHeight="1">
+      <c r="A31" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7">
+        <v>1</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="8"/>
+    </row>
+    <row r="32" spans="1:9" ht="32.5" customHeight="1">
+      <c r="A32" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7">
+        <v>12</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="8"/>
+    </row>
+    <row r="33" spans="1:9" ht="32.5" customHeight="1">
+      <c r="A33" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="8"/>
+    </row>
+    <row r="34" spans="1:9" ht="32.5" customHeight="1">
+      <c r="A34" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="8"/>
+    </row>
+    <row r="35" spans="1:9" ht="32.5" customHeight="1">
+      <c r="A35" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="8"/>
+    </row>
+    <row r="36" spans="1:9" ht="32.5" customHeight="1">
+      <c r="A36" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G36" s="7"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="8"/>
+    </row>
+    <row r="37" spans="1:9" ht="32.5" customHeight="1">
+      <c r="A37" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="6">
+        <v>1</v>
+      </c>
+      <c r="G37" s="7"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="8"/>
+    </row>
+    <row r="38" spans="1:9" ht="32.5" customHeight="1">
+      <c r="A38" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="6">
+        <v>12</v>
+      </c>
+      <c r="G38" s="7"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="8"/>
+    </row>
+    <row r="39" spans="1:9" ht="32.5" customHeight="1">
+      <c r="A39" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G39" s="7"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="8"/>
+    </row>
+    <row r="40" spans="1:9" ht="32.5" customHeight="1">
+      <c r="A40" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G40" s="7"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="8"/>
+    </row>
+    <row r="41" spans="1:9" ht="32.5" customHeight="1">
+      <c r="A41" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6">
+      <c r="D41" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="8"/>
+    </row>
+    <row r="42" spans="1:9" ht="34.5" customHeight="1">
+      <c r="A42" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="6">
         <v>0.98</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G42" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H42" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A14" s="5" t="s">
+      <c r="I42" s="8"/>
+    </row>
+    <row r="43" spans="1:9" ht="34" customHeight="1">
+      <c r="A43" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I43" s="8"/>
+    </row>
+    <row r="44" spans="1:9" ht="32" customHeight="1">
+      <c r="A44" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="7"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="8"/>
+    </row>
+    <row r="45" spans="1:9" ht="29.5" customHeight="1">
+      <c r="A45" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="B45" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="6">
+      <c r="D45" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45" s="5"/>
+      <c r="F45" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I45" s="8"/>
+    </row>
+    <row r="46" spans="1:9" ht="31.5" customHeight="1">
+      <c r="A46" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I46" s="8"/>
+    </row>
+    <row r="47" spans="1:9" ht="31.5" customHeight="1">
+      <c r="A47" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I47" s="8"/>
+    </row>
+    <row r="48" spans="1:9" ht="29.5" customHeight="1">
+      <c r="A48" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F48" s="6">
+        <v>0.63</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I48" s="8"/>
+    </row>
+    <row r="49" spans="1:9" ht="30" customHeight="1">
+      <c r="A49" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F49" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I49" s="8"/>
+    </row>
+    <row r="50" spans="1:9" ht="31" customHeight="1">
+      <c r="A50" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F50" s="6">
         <v>0.98</v>
       </c>
-      <c r="G14" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H14" s="9" t="s">
+      <c r="G50" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H50" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="I50" s="8"/>
+    </row>
+    <row r="51" spans="1:9" ht="30" customHeight="1">
+      <c r="A51" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D51" s="7"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="8"/>
+    </row>
+    <row r="52" spans="1:9" ht="30" customHeight="1">
+      <c r="A52" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F52" s="6">
+        <v>260</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I52" s="8"/>
+    </row>
+    <row r="53" spans="1:9" ht="34" customHeight="1">
+      <c r="A53" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" s="11" t="s">
+      <c r="D53" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G53" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H53" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="H16" s="9" t="s">
+    </row>
+    <row r="54" spans="1:9" ht="32.5" customHeight="1">
+      <c r="A54" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H54" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="6">
-        <v>0.63</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A19" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A20" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="6">
-        <v>0.98</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A21" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="6">
-        <v>260</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="I21" s="8"/>
-    </row>
-    <row r="22" spans="1:9" ht="14" customHeight="1">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="35.5" customHeight="1">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
+    </row>
+    <row r="55" spans="1:9" ht="28.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="I7:I9"/>
     <mergeCell ref="J7:J9"/>
     <mergeCell ref="A1:B1"/>
@@ -1216,12 +2053,6 @@
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="G7:G9"/>
     <mergeCell ref="H7:H9"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/bill of materials.xlsx
+++ b/bill of materials.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="132">
   <si>
     <t xml:space="preserve">Project Name </t>
   </si>
@@ -656,23 +656,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -692,8 +677,23 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -920,8 +920,8 @@
   </sheetPr>
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -936,140 +936,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="20"/>
+      <c r="E1" s="27"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="24"/>
+      <c r="H1" s="19"/>
       <c r="I1" s="1"/>
       <c r="J1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="21"/>
+      <c r="E2" s="28"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="25"/>
+      <c r="H2" s="20"/>
       <c r="I2" s="1"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="22"/>
+      <c r="E3" s="17"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="26"/>
+      <c r="H3" s="21"/>
       <c r="I3" s="1"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="23"/>
+      <c r="E4" s="18"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="27"/>
+      <c r="H4" s="22"/>
       <c r="I4" s="1"/>
       <c r="J4" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="23" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
     </row>
     <row r="10" spans="1:10" ht="32.5" customHeight="1">
       <c r="A10" s="10" t="s">
@@ -1146,7 +1146,9 @@
         <v>98</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="5"/>
+      <c r="H13" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:10" ht="32.5" customHeight="1">
@@ -1256,7 +1258,7 @@
       <c r="A19" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="16" t="s">
         <v>83</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -1270,7 +1272,9 @@
         <v>97</v>
       </c>
       <c r="G19" s="7"/>
-      <c r="H19" s="5"/>
+      <c r="H19" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" ht="32.5" customHeight="1">
@@ -1291,7 +1295,9 @@
         <v>53</v>
       </c>
       <c r="G20" s="7"/>
-      <c r="H20" s="5"/>
+      <c r="H20" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9" ht="32.5" customHeight="1">
@@ -1415,7 +1421,9 @@
         <v>96</v>
       </c>
       <c r="G26" s="7"/>
-      <c r="H26" s="5"/>
+      <c r="H26" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:9" ht="32.5" customHeight="1">
@@ -1436,7 +1444,9 @@
         <v>53</v>
       </c>
       <c r="G27" s="7"/>
-      <c r="H27" s="5"/>
+      <c r="H27" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:9" ht="32.5" customHeight="1">
@@ -1560,7 +1570,9 @@
         <v>95</v>
       </c>
       <c r="G33" s="7"/>
-      <c r="H33" s="5"/>
+      <c r="H33" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="I33" s="8"/>
     </row>
     <row r="34" spans="1:9" ht="32.5" customHeight="1">
@@ -1579,7 +1591,9 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
-      <c r="H34" s="5"/>
+      <c r="H34" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="I34" s="8"/>
     </row>
     <row r="35" spans="1:9" ht="32.5" customHeight="1">
@@ -1682,7 +1696,9 @@
         <v>54</v>
       </c>
       <c r="G39" s="7"/>
-      <c r="H39" s="5"/>
+      <c r="H39" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="I39" s="8"/>
     </row>
     <row r="40" spans="1:9" ht="32.5" customHeight="1">
@@ -1703,7 +1719,9 @@
         <v>94</v>
       </c>
       <c r="G40" s="7"/>
-      <c r="H40" s="5"/>
+      <c r="H40" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="I40" s="8"/>
     </row>
     <row r="41" spans="1:9" ht="32.5" customHeight="1">
@@ -2031,12 +2049,6 @@
     <row r="55" spans="1:9" ht="28.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
     <mergeCell ref="I7:I9"/>
     <mergeCell ref="J7:J9"/>
     <mergeCell ref="A1:B1"/>
@@ -2053,6 +2065,12 @@
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="G7:G9"/>
     <mergeCell ref="H7:H9"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/bill of materials.xlsx
+++ b/bill of materials.xlsx
@@ -643,29 +643,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -685,20 +682,26 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -925,8 +928,8 @@
   </sheetPr>
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -940,41 +943,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="18"/>
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="13" t="s">
+      <c r="E1" s="20"/>
+      <c r="F1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="13"/>
+      <c r="G1" s="12"/>
       <c r="I1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="14"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="13"/>
       <c r="H2" s="1">
         <v>45</v>
       </c>
@@ -983,1271 +986,1269 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="15" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="1"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="16" t="s">
+      <c r="E4" s="11"/>
+      <c r="F4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="1"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
       <c r="I4" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
     </row>
     <row r="10" spans="1:9" ht="32.5" customHeight="1">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="17" t="s">
+      <c r="D10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="H10" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="32.5" customHeight="1">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="17" t="s">
+      <c r="D11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="32.5" customHeight="1">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="17">
+      <c r="D12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="5">
         <v>500</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G12" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="H12" s="21" t="s">
+      <c r="G12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="32.5" customHeight="1">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="17" t="s">
+      <c r="D13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="21" t="s">
+      <c r="H13" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="32.5" customHeight="1">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="17" t="s">
+      <c r="D14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="32.5" customHeight="1">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="17">
+      <c r="D15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="5">
         <v>2</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G15" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="H15" s="21" t="s">
+      <c r="G15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="32.5" customHeight="1">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="17">
+      <c r="D16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="5">
         <v>0.12</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G16" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="H16" s="21" t="s">
+      <c r="G16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="32.5" customHeight="1">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="17">
+      <c r="D17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="5">
         <v>4</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17" s="21" t="s">
+      <c r="G17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="32.5" customHeight="1">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="17">
+      <c r="D18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="5">
         <v>36</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G18" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="H18" s="21" t="s">
+      <c r="G18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="32.5" customHeight="1">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="17" t="s">
+      <c r="D19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H19" s="21" t="s">
+      <c r="H19" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="32.5" customHeight="1">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="17" t="s">
+      <c r="D20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H20" s="21" t="s">
+      <c r="H20" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="32.5" customHeight="1">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="17" t="s">
+      <c r="D21" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H21" s="21" t="s">
+      <c r="H21" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="32.5" customHeight="1">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="17">
+      <c r="D22" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="5">
         <v>3</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G22" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="H22" s="21" t="s">
+      <c r="G22" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="32.5" customHeight="1">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="17">
+      <c r="D23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="5">
         <v>0.98</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F23" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="G23" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="H23" s="21" t="s">
+      <c r="G23" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="32.5" customHeight="1">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="17">
+      <c r="D24" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="5">
         <v>2</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G24" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="H24" s="21" t="s">
+      <c r="G24" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="32.5" customHeight="1">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="17">
+      <c r="D25" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="5">
         <v>24</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G25" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="H25" s="21" t="s">
+      <c r="G25" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="32.5" customHeight="1">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="17" t="s">
+      <c r="D26" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F26" s="19" t="s">
+      <c r="F26" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G26" s="18" t="s">
+      <c r="G26" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H26" s="21" t="s">
+      <c r="H26" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="32.5" customHeight="1">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="17" t="s">
+      <c r="D27" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F27" s="19" t="s">
+      <c r="F27" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G27" s="18" t="s">
+      <c r="G27" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H27" s="21" t="s">
+      <c r="H27" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="32.5" customHeight="1">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="17" t="s">
+      <c r="D28" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="G28" s="18" t="s">
+      <c r="G28" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H28" s="21" t="s">
+      <c r="H28" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="32.5" customHeight="1">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="17">
+      <c r="D29" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="5">
         <v>2</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F29" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G29" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="H29" s="21" t="s">
+      <c r="G29" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="32.5" customHeight="1">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="17">
+      <c r="D30" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="5">
         <v>0.21</v>
       </c>
-      <c r="F30" s="17" t="s">
+      <c r="F30" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="G30" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="H30" s="21" t="s">
+      <c r="G30" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H30" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="32.5" customHeight="1">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="17">
+      <c r="D31" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="5">
         <v>1</v>
       </c>
-      <c r="F31" s="19" t="s">
+      <c r="F31" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G31" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="H31" s="21" t="s">
+      <c r="G31" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H31" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="32.5" customHeight="1">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D32" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E32" s="17">
+      <c r="D32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="5">
         <v>12</v>
       </c>
-      <c r="F32" s="19" t="s">
+      <c r="F32" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G32" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="H32" s="21" t="s">
+      <c r="G32" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H32" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="32.5" customHeight="1">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D33" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E33" s="17" t="s">
+      <c r="D33" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F33" s="19" t="s">
+      <c r="F33" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="G33" s="18" t="s">
+      <c r="G33" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H33" s="21" t="s">
+      <c r="H33" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="32.5" customHeight="1">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D34" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" s="17" t="s">
+      <c r="D34" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F34" s="19" t="s">
+      <c r="F34" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G34" s="18" t="s">
+      <c r="G34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H34" s="21" t="s">
+      <c r="H34" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="32.5" customHeight="1">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E35" s="17" t="s">
+      <c r="D35" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F35" s="17" t="s">
+      <c r="F35" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="G35" s="18" t="s">
+      <c r="G35" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H35" s="21" t="s">
+      <c r="H35" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="32.5" customHeight="1">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D36" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E36" s="17">
+      <c r="D36" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="5">
         <v>0.5</v>
       </c>
-      <c r="F36" s="19" t="s">
+      <c r="F36" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="G36" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="H36" s="21" t="s">
+      <c r="G36" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H36" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="32.5" customHeight="1">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D37" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E37" s="17">
+      <c r="D37" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="5">
         <v>1</v>
       </c>
-      <c r="F37" s="19" t="s">
+      <c r="F37" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G37" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="H37" s="21" t="s">
+      <c r="G37" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H37" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="32.5" customHeight="1">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D38" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E38" s="17">
+      <c r="D38" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="5">
         <v>12</v>
       </c>
-      <c r="F38" s="19" t="s">
+      <c r="F38" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G38" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="H38" s="21" t="s">
+      <c r="G38" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H38" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="32.5" customHeight="1">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E39" s="17" t="s">
+      <c r="D39" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F39" s="19" t="s">
+      <c r="F39" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G39" s="18" t="s">
+      <c r="G39" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H39" s="21" t="s">
+      <c r="H39" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="32.5" customHeight="1">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D40" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E40" s="17" t="s">
+      <c r="D40" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F40" s="19" t="s">
+      <c r="F40" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G40" s="18" t="s">
+      <c r="G40" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H40" s="21" t="s">
+      <c r="H40" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="32.5" customHeight="1">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E41" s="17" t="s">
+      <c r="D41" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F41" s="17" t="s">
+      <c r="F41" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="G41" s="18" t="s">
+      <c r="G41" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H41" s="21" t="s">
+      <c r="H41" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="34.5" customHeight="1">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E42" s="17">
+      <c r="D42" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" s="5">
         <v>0.98</v>
       </c>
-      <c r="F42" s="19" t="s">
+      <c r="F42" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G42" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="H42" s="21" t="s">
+      <c r="G42" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H42" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="34" customHeight="1">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E43" s="17">
+      <c r="D43" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" s="5">
         <v>0.98</v>
       </c>
-      <c r="F43" s="19" t="s">
+      <c r="F43" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G43" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="H43" s="21" t="s">
+      <c r="G43" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H43" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="32" customHeight="1">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D44" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E44" s="18">
+      <c r="D44" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" s="6">
         <v>12</v>
       </c>
-      <c r="F44" s="19" t="s">
+      <c r="F44" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G44" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="H44" s="21" t="s">
+      <c r="G44" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H44" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="29.5" customHeight="1">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C45" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E45" s="17" t="s">
+      <c r="D45" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F45" s="19" t="s">
+      <c r="F45" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G45" s="18" t="s">
+      <c r="G45" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H45" s="21" t="s">
+      <c r="H45" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D46" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E46" s="17" t="s">
+      <c r="D46" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F46" s="19" t="s">
+      <c r="F46" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G46" s="18" t="s">
+      <c r="G46" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H46" s="21" t="s">
+      <c r="H46" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D47" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E47" s="20" t="s">
+      <c r="D47" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F47" s="19" t="s">
+      <c r="F47" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G47" s="18" t="s">
+      <c r="G47" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H47" s="21" t="s">
+      <c r="H47" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="29.5" customHeight="1">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E48" s="17">
+      <c r="D48" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E48" s="5">
         <v>0.63</v>
       </c>
-      <c r="F48" s="19" t="s">
+      <c r="F48" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G48" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="H48" s="21" t="s">
+      <c r="G48" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H48" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="30" customHeight="1">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E49" s="17">
+      <c r="D49" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E49" s="5">
         <v>0.01</v>
       </c>
-      <c r="F49" s="19" t="s">
+      <c r="F49" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G49" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="H49" s="21" t="s">
+      <c r="G49" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H49" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="31" customHeight="1">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D50" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E50" s="17">
+      <c r="D50" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E50" s="5">
         <v>0.98</v>
       </c>
-      <c r="F50" s="19" t="s">
+      <c r="F50" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G50" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="H50" s="21" t="s">
+      <c r="G50" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H50" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="30" customHeight="1">
-      <c r="A51" s="18" t="s">
+      <c r="A51" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C51" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D51" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E51" s="20">
+      <c r="D51" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" s="8">
         <v>12</v>
       </c>
-      <c r="F51" s="19" t="s">
+      <c r="F51" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G51" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="H51" s="21" t="s">
+      <c r="G51" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H51" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="30" customHeight="1">
-      <c r="A52" s="18" t="s">
+      <c r="A52" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D52" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E52" s="17">
+      <c r="D52" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E52" s="5">
         <v>260</v>
       </c>
-      <c r="F52" s="19" t="s">
+      <c r="F52" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G52" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="H52" s="21" t="s">
+      <c r="G52" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H52" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="34" customHeight="1">
-      <c r="A53" s="18" t="s">
+      <c r="A53" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C53" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D53" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E53" s="17" t="s">
+      <c r="D53" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F53" s="19" t="s">
+      <c r="F53" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G53" s="18" t="s">
+      <c r="G53" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H53" s="21" t="s">
+      <c r="H53" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="32.5" customHeight="1">
-      <c r="A54" s="18" t="s">
+      <c r="A54" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="B54" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D54" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E54" s="18" t="s">
+      <c r="D54" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E54" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="F54" s="19" t="s">
+      <c r="F54" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G54" s="18" t="s">
+      <c r="G54" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H54" s="21" t="s">
+      <c r="H54" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="28.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
     <mergeCell ref="H7:H9"/>
     <mergeCell ref="I7:I9"/>
     <mergeCell ref="A1:B1"/>
@@ -2263,6 +2264,12 @@
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="G7:G9"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
